--- a/周报/2018年10月25日.xlsx
+++ b/周报/2018年10月25日.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>周  报</t>
   </si>
@@ -28,7 +28,7 @@
     <t>周数：</t>
   </si>
   <si>
-    <t>第7、8周</t>
+    <t>第8周</t>
   </si>
   <si>
     <t>完成情况：</t>
@@ -76,16 +76,13 @@
     <t>张春辉</t>
   </si>
   <si>
-    <t>8、需求文档进一步完善</t>
-  </si>
-  <si>
-    <t>9、web设计规范文档</t>
-  </si>
-  <si>
     <t>遇到问题：</t>
   </si>
   <si>
     <t>下周任务：</t>
+  </si>
+  <si>
+    <t>解决在线支付、语音视频聊天、评论区、全文检索、视频播放等技术</t>
   </si>
 </sst>
 </file>
@@ -93,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -122,6 +119,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,83 +133,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +186,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -227,9 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,28 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -274,12 +271,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,174 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,21 +517,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -550,36 +532,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -603,8 +561,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,15 +788,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1150,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1268,61 +1256,49 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="99.95" customHeight="1" spans="1:4">
+      <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="99.95" customHeight="1" spans="1:4">
-      <c r="A15" s="7"/>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
+    <row r="16" s="1" customFormat="1" ht="99.95" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="99.95" customHeight="1" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
+    <row r="17" ht="20.1" customHeight="1"/>
     <row r="18" ht="20.1" customHeight="1"/>
     <row r="19" ht="20.1" customHeight="1"/>
     <row r="20" ht="20.1" customHeight="1"/>
     <row r="21" ht="20.1" customHeight="1"/>
     <row r="22" ht="20.1" customHeight="1"/>
-    <row r="23" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1335,11 +1311,10 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
